--- a/M4-2023-02- 43 to 70 and M4-2024-03-71 to 93 Measurements.xlsx
+++ b/M4-2023-02- 43 to 70 and M4-2024-03-71 to 93 Measurements.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7B5CC7-8B16-4004-93FB-B06A5746D29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD55AC-E9F0-4D79-85DC-F628AFCA4326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C43FA79B-031B-4897-A6B1-3A1FEE300082}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{C43FA79B-031B-4897-A6B1-3A1FEE300082}"/>
   </bookViews>
   <sheets>
     <sheet name="M4-2023-02-43 to 70" sheetId="1" r:id="rId1"/>
     <sheet name="M4-2024-03-71 to 93" sheetId="2" r:id="rId2"/>
     <sheet name="github test" sheetId="3" r:id="rId3"/>
+    <sheet name="test3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="29">
   <si>
     <t>BEFORE BIASING</t>
   </si>
@@ -170,6 +171,9 @@
   </si>
   <si>
     <t>blah</t>
+  </si>
+  <si>
+    <t>blah3</t>
   </si>
 </sst>
 </file>
@@ -2414,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4BDDDA-01B6-4E54-8DA5-E6F76AAF25E2}">
   <dimension ref="A2:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G23:G26"/>
     </sheetView>
   </sheetViews>
@@ -2438,4 +2442,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD39DFD-8349-45BC-966C-ABD838C31C3B}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>